--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/10/seed2/result_data_KNN.xlsx
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.104</v>
+        <v>-21.937</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.42</v>
+        <v>16.483</v>
       </c>
     </row>
     <row r="4">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.028</v>
+        <v>-19.861</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.566</v>
+        <v>-20.317</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -848,12 +848,12 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.818</v>
+        <v>16.622</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.776</v>
+        <v>-21.765</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.309999999999999</v>
+        <v>-8.388999999999999</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.279999999999999</v>
+        <v>-8.247999999999999</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.162000000000001</v>
+        <v>-7.553</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.034000000000001</v>
+        <v>-7.475</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.358000000000001</v>
+        <v>-8.374000000000001</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.851999999999999</v>
+        <v>-8.083</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.938</v>
+        <v>-21.993</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.251999999999999</v>
+        <v>-8.035</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.154</v>
+        <v>-8.409000000000001</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.234</v>
+        <v>-22.563</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1406,10 +1406,10 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.071999999999999</v>
+        <v>-8.106999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>16.596</v>
+        <v>16.574</v>
       </c>
     </row>
     <row r="58">
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.222</v>
+        <v>-22.5</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.49</v>
+        <v>16.602</v>
       </c>
     </row>
     <row r="62">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.606</v>
+        <v>-21.649</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.698</v>
+        <v>17.696</v>
       </c>
     </row>
     <row r="71">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.114000000000001</v>
+        <v>-8.004000000000001</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.812</v>
+        <v>-20.919</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.886</v>
+        <v>-21.997</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.836</v>
+        <v>16.597</v>
       </c>
     </row>
     <row r="87">
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.942</v>
+        <v>-6.667</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.303999999999999</v>
+        <v>-7.475999999999999</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.884</v>
+        <v>-21.472</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>16.184</v>
+        <v>16.421</v>
       </c>
     </row>
     <row r="99">
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.352</v>
+        <v>16.725</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.502</v>
+        <v>16.49</v>
       </c>
     </row>
   </sheetData>
